--- a/emon/2025/04-april/02_kertas-kerja/data/emon_db_pegawai.xlsx
+++ b/emon/2025/04-april/02_kertas-kerja/data/emon_db_pegawai.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\R\msdm\emon\2025\04-april\02_kertas-kerja\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13447CC-A39F-4C89-B754-86242914B82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="8025" yWindow="2370" windowWidth="11535" windowHeight="12915" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$25</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,249 +30,230 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
-    <t xml:space="preserve">nip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_presensi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_pmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340057264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afriani Niana Danus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340061169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvino Alexandro Yappy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvino Alexandro Yappy A.Md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340055195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Averinus Emanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Averinus Emanuel S.Kom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340062383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choirunnisa Jati Safitri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choirunnisa Jati Safitri,S.Tr.Stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340059848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clementine Mursitadewi Riantoby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clementine Mursitadewi Riantoby A.Md.Stat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340059849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornelia Christina Temu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornelia Christina Temu A.Md.Stat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340059855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felia Tifani Cornelia Klau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felia Tifani Cornelia Klau A.Md.Stat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340053753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fransiskus Saverius Soba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fransiskus Saverius Soba S.Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340055215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imelda Sandrawati Ambot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imelda Sandrawati Ambot S.Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340061365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana Marbun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana Marbun A. Md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340053757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasianus Vinsensius Wero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasianus Vinsensius Wero S.E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340053759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klara Yosefa Edralin Paoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klara Yosefa Edralin Paoe S.E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340019275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristanto Setyo Utomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340057474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Carlin Bepsi Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Carlin Bepsi Costa SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340019681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Diaz De Rozari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340055228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Helionora Yulinda Sair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Helionora Yulinda Sair S.E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340060406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Megachita Da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Megachita Da Silva A.Md.Stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340060409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryo Yoseph Ambarto Dwi Sili Osan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryo Yoseph Ambarto Dwi Sili Osan A.Md.Stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340063388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neka Putri Fardila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neka Putri Fardila,S.Tr.Stat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340019825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekolastika Maria Filipensa Naru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekolastika Maria Filipensa Naru SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340018763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentinus Nong Sina Gharu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340059028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wihelmus Wedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wihelmus Wedo S.Tr.Stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340018094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yohanes Lada Regaletha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340053779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoseph Yakobus Dedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoseph Yakobus Dedo S.E</t>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>nama_presensi</t>
+  </si>
+  <si>
+    <t>nama_response</t>
+  </si>
+  <si>
+    <t>n_pmo</t>
+  </si>
+  <si>
+    <t>340057264</t>
+  </si>
+  <si>
+    <t>Afriani Niana Danus</t>
+  </si>
+  <si>
+    <t>340061169</t>
+  </si>
+  <si>
+    <t>Alvino Alexandro Yappy</t>
+  </si>
+  <si>
+    <t>Alvino Alexandro Yappy A.Md</t>
+  </si>
+  <si>
+    <t>340055195</t>
+  </si>
+  <si>
+    <t>Averinus Emanuel</t>
+  </si>
+  <si>
+    <t>Averinus Emanuel S.Kom</t>
+  </si>
+  <si>
+    <t>340062383</t>
+  </si>
+  <si>
+    <t>Choirunnisa Jati Safitri</t>
+  </si>
+  <si>
+    <t>Choirunnisa Jati Safitri,S.Tr.Stat</t>
+  </si>
+  <si>
+    <t>340059848</t>
+  </si>
+  <si>
+    <t>Clementine Mursitadewi Riantoby</t>
+  </si>
+  <si>
+    <t>Clementine Mursitadewi Riantoby A.Md.Stat.</t>
+  </si>
+  <si>
+    <t>340059849</t>
+  </si>
+  <si>
+    <t>Cornelia Christina Temu</t>
+  </si>
+  <si>
+    <t>Cornelia Christina Temu A.Md.Stat.</t>
+  </si>
+  <si>
+    <t>340059855</t>
+  </si>
+  <si>
+    <t>Felia Tifani Cornelia Klau</t>
+  </si>
+  <si>
+    <t>Felia Tifani Cornelia Klau A.Md.Stat.</t>
+  </si>
+  <si>
+    <t>340053753</t>
+  </si>
+  <si>
+    <t>Fransiskus Saverius Soba</t>
+  </si>
+  <si>
+    <t>Fransiskus Saverius Soba S.Si</t>
+  </si>
+  <si>
+    <t>340055215</t>
+  </si>
+  <si>
+    <t>Imelda Sandrawati Ambot</t>
+  </si>
+  <si>
+    <t>Imelda Sandrawati Ambot S.Si</t>
+  </si>
+  <si>
+    <t>340061365</t>
+  </si>
+  <si>
+    <t>Juliana Marbun</t>
+  </si>
+  <si>
+    <t>Juliana Marbun A. Md</t>
+  </si>
+  <si>
+    <t>340053757</t>
+  </si>
+  <si>
+    <t>Kasianus Vinsensius Wero</t>
+  </si>
+  <si>
+    <t>Kasianus Vinsensius Wero S.E</t>
+  </si>
+  <si>
+    <t>340053759</t>
+  </si>
+  <si>
+    <t>Klara Yosefa Edralin Paoe</t>
+  </si>
+  <si>
+    <t>Klara Yosefa Edralin Paoe S.E</t>
+  </si>
+  <si>
+    <t>340019275</t>
+  </si>
+  <si>
+    <t>Kristanto Setyo Utomo</t>
+  </si>
+  <si>
+    <t>340057474</t>
+  </si>
+  <si>
+    <t>Maria Carlin Bepsi Costa</t>
+  </si>
+  <si>
+    <t>Maria Carlin Bepsi Costa SST</t>
+  </si>
+  <si>
+    <t>340019681</t>
+  </si>
+  <si>
+    <t>Maria Diaz De Rozari</t>
+  </si>
+  <si>
+    <t>340055228</t>
+  </si>
+  <si>
+    <t>Maria Helionora Yulinda Sair</t>
+  </si>
+  <si>
+    <t>Maria Helionora Yulinda Sair S.E.</t>
+  </si>
+  <si>
+    <t>340060406</t>
+  </si>
+  <si>
+    <t>Maria Megachita Da Silva</t>
+  </si>
+  <si>
+    <t>Maria Megachita Da Silva A.Md.Stat</t>
+  </si>
+  <si>
+    <t>340060409</t>
+  </si>
+  <si>
+    <t>Maryo Yoseph Ambarto Dwi Sili Osan</t>
+  </si>
+  <si>
+    <t>Maryo Yoseph Ambarto Dwi Sili Osan A.Md.Stat</t>
+  </si>
+  <si>
+    <t>340063388</t>
+  </si>
+  <si>
+    <t>Neka Putri Fardila</t>
+  </si>
+  <si>
+    <t>Neka Putri Fardila,S.Tr.Stat.</t>
+  </si>
+  <si>
+    <t>340019825</t>
+  </si>
+  <si>
+    <t>Sekolastika Maria Filipensa Naru</t>
+  </si>
+  <si>
+    <t>Sekolastika Maria Filipensa Naru SE</t>
+  </si>
+  <si>
+    <t>340018763</t>
+  </si>
+  <si>
+    <t>Valentinus Nong Sina Gharu</t>
+  </si>
+  <si>
+    <t>340059028</t>
+  </si>
+  <si>
+    <t>Wihelmus Wedo</t>
+  </si>
+  <si>
+    <t>Wihelmus Wedo S.Tr.Stat</t>
+  </si>
+  <si>
+    <t>340018094</t>
+  </si>
+  <si>
+    <t>Yohanes Lada Regaletha</t>
+  </si>
+  <si>
+    <t>340053779</t>
+  </si>
+  <si>
+    <t>Yoseph Yakobus Dedo</t>
+  </si>
+  <si>
+    <t>Yoseph Yakobus Dedo S.E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -305,7 +291,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -313,102 +299,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -467,64 +374,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -556,7 +475,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -580,7 +499,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -640,34 +559,33 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -689,11 +607,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -703,11 +621,11 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -717,11 +635,11 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -731,11 +649,11 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -745,11 +663,11 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -759,11 +677,11 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -773,11 +691,11 @@
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -787,11 +705,11 @@
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -801,11 +719,11 @@
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -815,11 +733,11 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -829,11 +747,11 @@
       <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -843,11 +761,11 @@
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -855,11 +773,11 @@
         <v>40</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -869,11 +787,11 @@
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -883,11 +801,11 @@
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -897,11 +815,11 @@
       <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -911,11 +829,11 @@
       <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -925,11 +843,11 @@
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -939,11 +857,11 @@
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -953,11 +871,11 @@
       <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -967,11 +885,11 @@
       <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -981,11 +899,11 @@
       <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -995,11 +913,11 @@
       <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -1009,19 +927,13 @@
       <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <autoFilter ref="A1:D25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/emon/2025/04-april/02_kertas-kerja/data/emon_db_pegawai.xlsx
+++ b/emon/2025/04-april/02_kertas-kerja/data/emon_db_pegawai.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\R\msdm\emon\2025\04-april\02_kertas-kerja\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13447CC-A39F-4C89-B754-86242914B82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="2370" windowWidth="11535" windowHeight="12915" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$25</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,230 +25,249 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
-    <t>nip</t>
-  </si>
-  <si>
-    <t>nama_presensi</t>
-  </si>
-  <si>
-    <t>nama_response</t>
-  </si>
-  <si>
-    <t>n_pmo</t>
-  </si>
-  <si>
-    <t>340057264</t>
-  </si>
-  <si>
-    <t>Afriani Niana Danus</t>
-  </si>
-  <si>
-    <t>340061169</t>
-  </si>
-  <si>
-    <t>Alvino Alexandro Yappy</t>
-  </si>
-  <si>
-    <t>Alvino Alexandro Yappy A.Md</t>
-  </si>
-  <si>
-    <t>340055195</t>
-  </si>
-  <si>
-    <t>Averinus Emanuel</t>
-  </si>
-  <si>
-    <t>Averinus Emanuel S.Kom</t>
-  </si>
-  <si>
-    <t>340062383</t>
-  </si>
-  <si>
-    <t>Choirunnisa Jati Safitri</t>
-  </si>
-  <si>
-    <t>Choirunnisa Jati Safitri,S.Tr.Stat</t>
-  </si>
-  <si>
-    <t>340059848</t>
-  </si>
-  <si>
-    <t>Clementine Mursitadewi Riantoby</t>
-  </si>
-  <si>
-    <t>Clementine Mursitadewi Riantoby A.Md.Stat.</t>
-  </si>
-  <si>
-    <t>340059849</t>
-  </si>
-  <si>
-    <t>Cornelia Christina Temu</t>
-  </si>
-  <si>
-    <t>Cornelia Christina Temu A.Md.Stat.</t>
-  </si>
-  <si>
-    <t>340059855</t>
-  </si>
-  <si>
-    <t>Felia Tifani Cornelia Klau</t>
-  </si>
-  <si>
-    <t>Felia Tifani Cornelia Klau A.Md.Stat.</t>
-  </si>
-  <si>
-    <t>340053753</t>
-  </si>
-  <si>
-    <t>Fransiskus Saverius Soba</t>
-  </si>
-  <si>
-    <t>Fransiskus Saverius Soba S.Si</t>
-  </si>
-  <si>
-    <t>340055215</t>
-  </si>
-  <si>
-    <t>Imelda Sandrawati Ambot</t>
-  </si>
-  <si>
-    <t>Imelda Sandrawati Ambot S.Si</t>
-  </si>
-  <si>
-    <t>340061365</t>
-  </si>
-  <si>
-    <t>Juliana Marbun</t>
-  </si>
-  <si>
-    <t>Juliana Marbun A. Md</t>
-  </si>
-  <si>
-    <t>340053757</t>
-  </si>
-  <si>
-    <t>Kasianus Vinsensius Wero</t>
-  </si>
-  <si>
-    <t>Kasianus Vinsensius Wero S.E</t>
-  </si>
-  <si>
-    <t>340053759</t>
-  </si>
-  <si>
-    <t>Klara Yosefa Edralin Paoe</t>
-  </si>
-  <si>
-    <t>Klara Yosefa Edralin Paoe S.E</t>
-  </si>
-  <si>
-    <t>340019275</t>
-  </si>
-  <si>
-    <t>Kristanto Setyo Utomo</t>
-  </si>
-  <si>
-    <t>340057474</t>
-  </si>
-  <si>
-    <t>Maria Carlin Bepsi Costa</t>
-  </si>
-  <si>
-    <t>Maria Carlin Bepsi Costa SST</t>
-  </si>
-  <si>
-    <t>340019681</t>
-  </si>
-  <si>
-    <t>Maria Diaz De Rozari</t>
-  </si>
-  <si>
-    <t>340055228</t>
-  </si>
-  <si>
-    <t>Maria Helionora Yulinda Sair</t>
-  </si>
-  <si>
-    <t>Maria Helionora Yulinda Sair S.E.</t>
-  </si>
-  <si>
-    <t>340060406</t>
-  </si>
-  <si>
-    <t>Maria Megachita Da Silva</t>
-  </si>
-  <si>
-    <t>Maria Megachita Da Silva A.Md.Stat</t>
-  </si>
-  <si>
-    <t>340060409</t>
-  </si>
-  <si>
-    <t>Maryo Yoseph Ambarto Dwi Sili Osan</t>
-  </si>
-  <si>
-    <t>Maryo Yoseph Ambarto Dwi Sili Osan A.Md.Stat</t>
-  </si>
-  <si>
-    <t>340063388</t>
-  </si>
-  <si>
-    <t>Neka Putri Fardila</t>
-  </si>
-  <si>
-    <t>Neka Putri Fardila,S.Tr.Stat.</t>
-  </si>
-  <si>
-    <t>340019825</t>
-  </si>
-  <si>
-    <t>Sekolastika Maria Filipensa Naru</t>
-  </si>
-  <si>
-    <t>Sekolastika Maria Filipensa Naru SE</t>
-  </si>
-  <si>
-    <t>340018763</t>
-  </si>
-  <si>
-    <t>Valentinus Nong Sina Gharu</t>
-  </si>
-  <si>
-    <t>340059028</t>
-  </si>
-  <si>
-    <t>Wihelmus Wedo</t>
-  </si>
-  <si>
-    <t>Wihelmus Wedo S.Tr.Stat</t>
-  </si>
-  <si>
-    <t>340018094</t>
-  </si>
-  <si>
-    <t>Yohanes Lada Regaletha</t>
-  </si>
-  <si>
-    <t>340053779</t>
-  </si>
-  <si>
-    <t>Yoseph Yakobus Dedo</t>
-  </si>
-  <si>
-    <t>Yoseph Yakobus Dedo S.E</t>
+    <t xml:space="preserve">nip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nama_presensi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nama_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_pmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340057264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afriani Niana Danus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340061169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvino Alexandro Yappy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvino Alexandro Yappy A.Md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340055195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Averinus Emanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Averinus Emanuel S.Kom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340062383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choirunnisa Jati Safitri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choirunnisa Jati Safitri,S.Tr.Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340059848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clementine Mursitadewi Riantoby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clementine Mursitadewi Riantoby A.Md.Stat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340059849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelia Christina Temu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelia Christina Temu A.Md.Stat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340059855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felia Tifani Cornelia Klau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felia Tifani Cornelia Klau A.Md.Stat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340053753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fransiskus Saverius Soba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fransiskus Saverius Soba S.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340055215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imelda Sandrawati Ambot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imelda Sandrawati Ambot S.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340061365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Marbun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Marbun A. Md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340053757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasianus Vinsensius Wero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasianus Vinsensius Wero S.E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340053759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klara Yosefa Edralin Paoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klara Yosefa Edralin Paoe S.E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340019275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristanto Setyo Utomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340057474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Carlin Bepsi Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Carlin Bepsi Costa SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340019681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Diaz De Rozari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340055228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Helionora Yulinda Sair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Helionora Yulinda Sair S.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340060406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Megachita Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Megachita Da Silva A.Md.Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340060409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryo Yoseph Ambarto Dwi Sili Osan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryo Yoseph Ambarto Dwi Sili Osan A.Md.Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340063388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neka Putri Fardila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neka Putri Fardila,S.Tr.Stat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340019825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekolastika Maria Filipensa Naru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekolastika Maria Filipensa Naru SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340018763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentinus Nong Sina Gharu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340059028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wihelmus Wedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wihelmus Wedo S.Tr.Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340018094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohanes Lada Regaletha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340053779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoseph Yakobus Dedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoseph Yakobus Dedo S.E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,7 +305,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -299,23 +313,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -374,76 +467,64 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -475,7 +556,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -499,7 +580,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -559,33 +640,34 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="10.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,11 +689,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,11 +703,11 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -635,11 +717,11 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -649,11 +731,11 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -663,11 +745,11 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -677,11 +759,11 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -691,11 +773,11 @@
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -705,11 +787,11 @@
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -719,11 +801,11 @@
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -733,11 +815,11 @@
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -747,11 +829,11 @@
       <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -761,11 +843,11 @@
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -773,11 +855,11 @@
         <v>40</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -787,11 +869,11 @@
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -801,11 +883,11 @@
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -815,11 +897,11 @@
       <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -829,11 +911,11 @@
       <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -843,11 +925,11 @@
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -857,11 +939,11 @@
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -871,11 +953,11 @@
       <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -885,11 +967,11 @@
       <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -899,11 +981,11 @@
       <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -913,11 +995,11 @@
       <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -927,13 +1009,19 @@
       <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D25"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>